--- a/src/static/template_ippan_chosa.xlsx
+++ b/src/static/template_ippan_chosa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="IPPAN" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,8 +23,10 @@
     <sheet name="FLOOD_SEDIMENT" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="GRADIENT" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="INDUSTRY" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="AREA" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="CITY_VLOOK" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="SUIGAI" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="WEATHER" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="AREA" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="CITY_VLOOK" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -577,11 +579,11 @@
   </sheetPr>
   <dimension ref="B2:AA1020"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V25" activeCellId="0" sqref="V25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="0" width="22.14"/>
@@ -29324,7 +29326,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29347,7 +29349,7 @@
       <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29370,7 +29372,7 @@
       <selection pane="topLeft" activeCell="Q31" activeCellId="0" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29393,7 +29395,7 @@
       <selection pane="topLeft" activeCell="Q26" activeCellId="0" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29416,7 +29418,7 @@
       <selection pane="topLeft" activeCell="S25" activeCellId="0" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29439,7 +29441,7 @@
       <selection pane="topLeft" activeCell="T27" activeCellId="0" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29459,10 +29461,56 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29474,7 +29522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -29485,7 +29533,7 @@
       <selection pane="topLeft" activeCell="T24" activeCellId="0" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29508,7 +29556,7 @@
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29531,7 +29579,7 @@
       <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29554,7 +29602,7 @@
       <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29577,7 +29625,7 @@
       <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29600,7 +29648,7 @@
       <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29623,7 +29671,7 @@
       <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29646,7 +29694,7 @@
       <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29669,7 +29717,7 @@
       <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/static/template_ippan_chosa.xlsx
+++ b/src/static/template_ippan_chosa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IPPAN" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,6 +27,7 @@
     <sheet name="WEATHER" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="AREA" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="CITY_VLOOK" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="KASEN_VLOOK" sheetId="20" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -579,8 +580,8 @@
   </sheetPr>
   <dimension ref="B2:AA1020"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V25" activeCellId="0" sqref="V25"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29464,7 +29465,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -29483,11 +29484,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -29554,6 +29555,29 @@
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P30" activeCellId="0" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
